--- a/testdata/Test.xlsx
+++ b/testdata/Test.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11320"/>
+    <workbookView windowWidth="19680" windowHeight="6520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestSheet" sheetId="3" r:id="rId3"/>
+    <sheet name="TestSheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>Name</t>
   </si>
@@ -50,6 +53,105 @@
   </si>
   <si>
     <t>NY</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>123-123-1234</t>
+  </si>
+  <si>
+    <t>john@gmail.com</t>
+  </si>
+  <si>
+    <t>123 Test Ave</t>
+  </si>
+  <si>
+    <t>johndoe</t>
+  </si>
+  <si>
+    <t>john123</t>
+  </si>
+  <si>
+    <t>123-123-1235</t>
+  </si>
+  <si>
+    <t>jane@gmail.com</t>
+  </si>
+  <si>
+    <t>456 Test Ave</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>janesmith</t>
+  </si>
+  <si>
+    <t>jane123</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>123-123-1444</t>
+  </si>
+  <si>
+    <t>jack@gmail.com</t>
+  </si>
+  <si>
+    <t>789 Test Ave</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>jacksmith</t>
+  </si>
+  <si>
+    <t>jack123</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>ChaseBank</t>
+  </si>
+  <si>
+    <t>CitiBank</t>
   </si>
 </sst>
 </file>
@@ -57,8 +159,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -78,6 +180,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -93,8 +203,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,115 +271,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,79 +345,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,91 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,11 +553,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,8 +593,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,39 +616,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,156 +629,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,18 +1103,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="31.2" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="20.703125" defaultRowHeight="31.2" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="16384" width="20.703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,8 +1130,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1042,6 +1148,7 @@
       <c r="E2" s="1">
         <v>20151</v>
       </c>
+      <c r="F2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -1059,9 +1166,290 @@
       <c r="E3" s="1">
         <v>10101</v>
       </c>
+    </row>
+    <row r="4" ht="42" customHeight="1" spans="1:1">
+      <c r="A4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="29" customHeight="1" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="16384" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:11">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>12345</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>98765</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>77777</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="john@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="jane@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="jack@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.1484375" defaultRowHeight="42" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="16384" width="16.1484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20151</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.2734375" defaultRowHeight="37" customHeight="1" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="16.2734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2">
+        <v>212</v>
+      </c>
+      <c r="B2">
+        <v>312</v>
+      </c>
+      <c r="C2">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>